--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="265">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,57 +58,69 @@
     <t>worst</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>[UNK]</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
@@ -118,991 +130,682 @@
     <t>insane</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>sick</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dumb</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>frightening</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
+    <t>single</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>confusing</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>late</t>
   </si>
   <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>manipulating</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>slight</t>
+  </si>
+  <si>
     <t>scared</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>aside</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>portrayed</t>
-  </si>
-  <si>
-    <t>manipulating</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>humble</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>drugs</t>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>literally</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>inspired</t>
   </si>
   <si>
     <t>eye</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>literally</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>scrolling</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>existent</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>designed</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>opened</t>
+  </si>
+  <si>
+    <t>strongly</t>
   </si>
   <si>
     <t>show</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>attention</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>thoughtful</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>already</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>strongly</t>
-  </si>
-  <si>
-    <t>perhaps</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>paying</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>joining</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>rig</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>knew</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>inspiration</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>trend</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>networks</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>est</t>
-  </si>
-  <si>
-    <t>wondering</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>totally</t>
-  </si>
-  <si>
-    <t>vast</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>jeff</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>documentaries</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>connect</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>thinking</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>determined</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>youth</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>opened</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>mas</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>soc</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>quick</t>
   </si>
   <si>
     <t>let</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>even</t>
   </si>
   <si>
     <t>positive</t>
@@ -1463,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q259"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,10 +1174,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1532,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1254901960784314</v>
+        <v>0.1375886524822695</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1550,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K3">
-        <v>0.215625</v>
+        <v>0.2301980198019802</v>
       </c>
       <c r="L3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1574,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1582,13 +1285,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1137254901960784</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1600,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>0.0390625</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1624,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1632,13 +1335,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07973856209150326</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1650,31 +1353,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5">
+        <v>0.03712871287128713</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5">
-        <v>0.03359375</v>
-      </c>
-      <c r="L5">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1682,13 +1385,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03790849673202614</v>
+        <v>0.04397163120567376</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1700,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>0.0328125</v>
+        <v>0.03547854785478548</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1724,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1732,13 +1435,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03790849673202614</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1750,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>0.03046875</v>
+        <v>0.03135313531353135</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1774,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1782,13 +1485,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03529411764705882</v>
+        <v>0.03971631205673759</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1800,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>0.02578125</v>
+        <v>0.02722772277227723</v>
       </c>
       <c r="L8">
         <v>33</v>
@@ -1832,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03006535947712418</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1850,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.0234375</v>
+        <v>0.02227722772277228</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1874,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>510</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1882,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02352941176470588</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1900,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10">
+        <v>0.01732673267326733</v>
+      </c>
+      <c r="L10">
         <v>21</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10">
-        <v>0.0203125</v>
-      </c>
-      <c r="L10">
-        <v>26</v>
-      </c>
       <c r="M10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1924,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1932,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02091503267973856</v>
+        <v>0.02269503546099291</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1950,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="K11">
-        <v>0.01640625</v>
+        <v>0.01732673267326733</v>
       </c>
       <c r="L11">
         <v>21</v>
@@ -1974,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>595</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1982,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0196078431372549</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -2003,10 +1706,10 @@
         <v>282</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.015625</v>
+        <v>0.0165016501650165</v>
       </c>
       <c r="L12">
         <v>20</v>
@@ -2024,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2032,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0196078431372549</v>
+        <v>0.0198581560283688</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2050,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0.01484375</v>
+        <v>0.01567656765676568</v>
       </c>
       <c r="L13">
         <v>19</v>
@@ -2074,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2082,13 +1785,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01830065359477124</v>
+        <v>0.01843971631205674</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2100,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.01484375</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2124,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2132,13 +1835,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01830065359477124</v>
+        <v>0.01843971631205674</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2150,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>0.0140625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="L15">
         <v>18</v>
@@ -2174,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2182,13 +1885,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01830065359477124</v>
+        <v>0.01843971631205674</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2200,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>0.0125</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2224,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2232,13 +1935,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01699346405228758</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2250,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.0125</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="L17">
         <v>16</v>
@@ -2274,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>765</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2282,13 +1985,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01699346405228758</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2300,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>0.01171875</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2324,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2332,13 +2035,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01699346405228758</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2350,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>0.0109375</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2374,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2382,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01568627450980392</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -2400,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K20">
-        <v>0.0109375</v>
+        <v>0.01155115511551155</v>
       </c>
       <c r="L20">
         <v>14</v>
@@ -2424,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2432,7 +2135,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01568627450980392</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -2450,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="K21">
-        <v>0.01015625</v>
+        <v>0.01072607260726073</v>
       </c>
       <c r="L21">
         <v>13</v>
@@ -2482,7 +2185,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01437908496732026</v>
+        <v>0.01560283687943262</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -2500,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="K22">
-        <v>0.009375</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L22">
         <v>12</v>
@@ -2524,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>271</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2532,13 +2235,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01437908496732026</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2550,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="K23">
-        <v>0.009375</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L23">
         <v>12</v>
@@ -2574,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2582,13 +2285,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01437908496732026</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2600,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>0.008593750000000001</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2624,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2632,13 +2335,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0130718954248366</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2650,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>0.008593750000000001</v>
+        <v>0.009075907590759076</v>
       </c>
       <c r="L25">
         <v>11</v>
@@ -2674,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>54</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2682,13 +2385,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01045751633986928</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2700,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>0.008593750000000001</v>
+        <v>0.009075907590759076</v>
       </c>
       <c r="L26">
         <v>11</v>
@@ -2724,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2732,13 +2435,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01045751633986928</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2750,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="K27">
-        <v>0.0078125</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -2774,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2782,13 +2485,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01045751633986928</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2800,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="K28">
-        <v>0.0078125</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -2824,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2832,7 +2535,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01045751633986928</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2850,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K29">
-        <v>0.0078125</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -2874,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2882,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01045751633986928</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2900,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="K30">
-        <v>0.00703125</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2924,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2932,13 +2635,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.009150326797385621</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2950,19 +2653,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K31">
-        <v>0.00625</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2974,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2982,13 +2685,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009150326797385621</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3000,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="K32">
-        <v>0.00625</v>
+        <v>0.00825082508250825</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3024,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3032,13 +2735,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009150326797385621</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3053,16 +2756,16 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="K33">
-        <v>0.00625</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3074,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3082,13 +2785,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007843137254901961</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3100,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="K34">
-        <v>0.00625</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3124,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3132,13 +2835,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007843137254901961</v>
+        <v>0.009929078014184398</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3150,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="K35">
-        <v>0.00546875</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3174,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3182,7 +2885,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007843137254901961</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3200,19 +2903,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="K36">
-        <v>0.00546875</v>
+        <v>0.006600660066006601</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3224,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3232,7 +2935,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007843137254901961</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -3250,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="K37">
-        <v>0.00546875</v>
+        <v>0.006600660066006601</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -3282,31 +2985,31 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006535947712418301</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="K38">
-        <v>0.00546875</v>
+        <v>0.005775577557755775</v>
       </c>
       <c r="L38">
         <v>7</v>
@@ -3324,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3332,13 +3035,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006535947712418301</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3350,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K39">
-        <v>0.0046875</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -3374,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3382,7 +3085,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006535947712418301</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -3400,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="K40">
-        <v>0.0046875</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L40">
         <v>6</v>
@@ -3424,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3432,31 +3135,31 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00522875816993464</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="K41">
-        <v>0.0046875</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L41">
         <v>6</v>
@@ -3474,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3482,13 +3185,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00522875816993464</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3500,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="K42">
-        <v>0.0046875</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L42">
         <v>6</v>
@@ -3524,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3532,7 +3235,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00522875816993464</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3550,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="K43">
-        <v>0.0046875</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="L43">
         <v>6</v>
@@ -3574,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3582,7 +3285,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00522875816993464</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3600,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="K44">
-        <v>0.0046875</v>
+        <v>0.004125412541254125</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3624,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>4</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3632,13 +3335,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00392156862745098</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3650,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K45">
-        <v>0.0046875</v>
+        <v>0.004125412541254125</v>
       </c>
       <c r="L45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3674,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3682,7 +3385,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00392156862745098</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3700,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="K46">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3724,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3732,7 +3435,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00392156862745098</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3750,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="K47">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3774,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3782,7 +3485,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00392156862745098</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3800,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K48">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3824,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3832,13 +3535,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00392156862745098</v>
+        <v>0.002836879432624114</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3850,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="K49">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3874,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3882,13 +3585,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00392156862745098</v>
+        <v>0.002836879432624114</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3900,19 +3603,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="K50">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3924,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3932,13 +3635,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00392156862745098</v>
+        <v>0.002836879432624114</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3950,19 +3653,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="K51">
-        <v>0.00390625</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3974,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3982,13 +3685,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4000,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="K52">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L52">
         <v>4</v>
@@ -4024,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4032,13 +3735,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4050,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K53">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L53">
         <v>4</v>
@@ -4074,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4082,13 +3785,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4100,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="K54">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L54">
         <v>4</v>
@@ -4124,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4132,13 +3835,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4150,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="K55">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L55">
         <v>4</v>
@@ -4174,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4182,13 +3885,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4200,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="K56">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L56">
         <v>4</v>
@@ -4224,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4232,13 +3935,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4250,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="K57">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L57">
         <v>4</v>
@@ -4274,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4282,13 +3985,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4300,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="K58">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L58">
         <v>4</v>
@@ -4324,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4332,13 +4035,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4350,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="K59">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L59">
         <v>4</v>
@@ -4374,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4382,13 +4085,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4400,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="K60">
-        <v>0.003125</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="L60">
         <v>4</v>
@@ -4424,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4432,13 +4135,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4450,19 +4153,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="K61">
-        <v>0.003125</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -4474,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4482,13 +4185,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4500,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="K62">
-        <v>0.003125</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -4524,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4532,13 +4235,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00261437908496732</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4550,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="K63">
-        <v>0.003125</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4574,45 +4277,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.00261437908496732</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>33</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="K64">
-        <v>0.003125</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4624,39 +4303,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.00261437908496732</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="K65">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L65">
         <v>3</v>
@@ -4674,39 +4329,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="K66">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -4724,39 +4355,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="K67">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L67">
         <v>3</v>
@@ -4774,39 +4381,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>12</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="K68">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L68">
         <v>3</v>
@@ -4824,39 +4407,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="K69">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -4874,39 +4433,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K70">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -4924,39 +4459,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="K71">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L71">
         <v>3</v>
@@ -4974,39 +4485,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="K72">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -5024,39 +4511,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="K73">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L73">
         <v>3</v>
@@ -5074,39 +4537,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="K74">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -5124,39 +4563,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="K75">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -5174,39 +4589,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="K76">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -5224,39 +4615,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="K77">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -5274,39 +4641,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
         <v>4</v>
       </c>
+    </row>
+    <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="K78">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -5324,39 +4667,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="K79">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -5374,39 +4693,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="K80">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -5424,39 +4719,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="K81">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -5474,39 +4745,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>105</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="K82">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -5524,39 +4771,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="K83">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -5574,39 +4797,15 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>4</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="K84">
-        <v>0.00234375</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L84">
         <v>3</v>
@@ -5624,45 +4823,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="K85">
-        <v>0.0015625</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -5674,45 +4849,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>15</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="K86">
-        <v>0.0015625</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -5724,39 +4875,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>8</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="K87">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L87">
         <v>2</v>
@@ -5774,39 +4901,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="K88">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L88">
         <v>2</v>
@@ -5824,39 +4927,15 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="K89">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L89">
         <v>2</v>
@@ -5874,39 +4953,15 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K90">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -5924,39 +4979,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="K91">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L91">
         <v>2</v>
@@ -5974,89 +5005,41 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="K92">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L92">
         <v>2</v>
       </c>
       <c r="M92">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="K93">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L93">
         <v>2</v>
@@ -6074,39 +5057,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="K94">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L94">
         <v>2</v>
@@ -6124,39 +5083,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="K95">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L95">
         <v>2</v>
@@ -6174,39 +5109,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="K96">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L96">
         <v>2</v>
@@ -6224,39 +5135,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>11</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="K97">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -6274,39 +5161,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="K98">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -6324,89 +5187,41 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="K99">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L99">
         <v>2</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>25</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="K100">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -6424,39 +5239,15 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101">
-        <v>0.00130718954248366</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="K101">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -6474,15 +5265,15 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="K102">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L102">
         <v>2</v>
@@ -6500,15 +5291,15 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="K103">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -6526,15 +5317,15 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="K104">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L104">
         <v>2</v>
@@ -6552,15 +5343,15 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="K105">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L105">
         <v>2</v>
@@ -6578,15 +5369,15 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="K106">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L106">
         <v>2</v>
@@ -6604,15 +5395,15 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="K107">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L107">
         <v>2</v>
@@ -6630,15 +5421,15 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="K108">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -6656,15 +5447,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="K109">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L109">
         <v>2</v>
@@ -6682,15 +5473,15 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="K110">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -6708,15 +5499,15 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="K111">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L111">
         <v>2</v>
@@ -6734,15 +5525,15 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K112">
-        <v>0.0015625</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L112">
         <v>2</v>
@@ -6760,21 +5551,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="K113">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -6786,21 +5577,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K114">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -6812,21 +5603,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="K115">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -6838,21 +5629,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="K116">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -6864,21 +5655,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="K117">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6890,21 +5681,21 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="K118">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -6916,21 +5707,21 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="K119">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -6942,21 +5733,21 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="K120">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6968,21 +5759,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="K121">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -6999,16 +5790,16 @@
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="K122">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -7020,21 +5811,21 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="K123">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7046,21 +5837,21 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="K124">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7072,21 +5863,21 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="K125">
-        <v>0.0015625</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7098,15 +5889,15 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="K126">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -7124,15 +5915,15 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="K127">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7150,15 +5941,15 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="K128">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7176,15 +5967,15 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="K129">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7202,15 +5993,15 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="K130">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -7228,15 +6019,15 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="K131">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -7254,15 +6045,15 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="K132">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -7280,15 +6071,15 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="K133">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -7306,15 +6097,15 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>287</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="K134">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -7332,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="K135">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -7358,15 +6149,15 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="K136">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -7384,15 +6175,15 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="K137">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -7410,15 +6201,15 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="K138">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -7436,15 +6227,15 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="K139">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -7462,15 +6253,15 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="K140">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -7488,15 +6279,15 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="K141">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -7514,15 +6305,15 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="K142">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -7540,15 +6331,15 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="K143">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -7566,15 +6357,15 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="K144">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -7592,15 +6383,15 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K145">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -7618,15 +6409,15 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="K146">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -7644,15 +6435,15 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="K147">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -7670,15 +6461,15 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="K148">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -7696,15 +6487,15 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="K149">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -7722,15 +6513,15 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="K150">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -7748,15 +6539,15 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="K151">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L151">
         <v>1</v>
@@ -7774,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="K152">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -7800,15 +6591,15 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="K153">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -7826,15 +6617,15 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="K154">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L154">
         <v>1</v>
@@ -7852,15 +6643,15 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="K155">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L155">
         <v>1</v>
@@ -7878,15 +6669,15 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K156">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L156">
         <v>1</v>
@@ -7904,15 +6695,15 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="K157">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L157">
         <v>1</v>
@@ -7930,15 +6721,15 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="K158">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L158">
         <v>1</v>
@@ -7956,15 +6747,15 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="K159">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -7982,15 +6773,15 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="K160">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L160">
         <v>1</v>
@@ -8008,15 +6799,15 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K161">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -8034,15 +6825,15 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="K162">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -8060,15 +6851,15 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="K163">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -8086,15 +6877,15 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="K164">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L164">
         <v>1</v>
@@ -8112,15 +6903,15 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K165">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -8138,15 +6929,15 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="K166">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -8164,15 +6955,15 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="K167">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L167">
         <v>1</v>
@@ -8190,15 +6981,15 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="K168">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L168">
         <v>1</v>
@@ -8216,15 +7007,15 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="K169">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -8242,15 +7033,15 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="K170">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L170">
         <v>1</v>
@@ -8268,15 +7059,15 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="10:17">
       <c r="J171" s="1" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="K171">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L171">
         <v>1</v>
@@ -8294,15 +7085,15 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="10:17">
       <c r="J172" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="K172">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -8320,15 +7111,15 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="10:17">
       <c r="J173" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="K173">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -8346,15 +7137,15 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="10:17">
       <c r="J174" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="K174">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -8372,15 +7163,15 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="10:17">
       <c r="J175" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="K175">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L175">
         <v>1</v>
@@ -8403,10 +7194,10 @@
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="K176">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L176">
         <v>1</v>
@@ -8424,15 +7215,15 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="10:17">
       <c r="J177" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="K177">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -8450,15 +7241,15 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="10:17">
       <c r="J178" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="K178">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L178">
         <v>1</v>
@@ -8476,15 +7267,15 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="10:17">
       <c r="J179" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K179">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L179">
         <v>1</v>
@@ -8502,15 +7293,15 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="10:17">
       <c r="J180" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="K180">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L180">
         <v>1</v>
@@ -8528,15 +7319,15 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="10:17">
       <c r="J181" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="K181">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L181">
         <v>1</v>
@@ -8554,15 +7345,15 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="10:17">
       <c r="J182" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="K182">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -8580,15 +7371,15 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="10:17">
       <c r="J183" s="1" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="K183">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L183">
         <v>1</v>
@@ -8606,15 +7397,15 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="10:17">
       <c r="J184" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="K184">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L184">
         <v>1</v>
@@ -8632,15 +7423,15 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="10:17">
       <c r="J185" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="K185">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -8658,15 +7449,15 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="10:17">
       <c r="J186" s="1" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="K186">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L186">
         <v>1</v>
@@ -8684,15 +7475,15 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="10:17">
       <c r="J187" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="K187">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -8710,15 +7501,15 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="10:17">
       <c r="J188" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="K188">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L188">
         <v>1</v>
@@ -8736,15 +7527,15 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="10:17">
       <c r="J189" s="1" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="K189">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L189">
         <v>1</v>
@@ -8762,15 +7553,15 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="10:17">
       <c r="J190" s="1" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="K190">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L190">
         <v>1</v>
@@ -8793,10 +7584,10 @@
     </row>
     <row r="191" spans="10:17">
       <c r="J191" s="1" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="K191">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L191">
         <v>1</v>
@@ -8814,15 +7605,15 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="10:17">
       <c r="J192" s="1" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="K192">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L192">
         <v>1</v>
@@ -8840,15 +7631,15 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="10:17">
       <c r="J193" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="K193">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L193">
         <v>1</v>
@@ -8866,15 +7657,15 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="10:17">
       <c r="J194" s="1" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="K194">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -8892,15 +7683,15 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="10:17">
       <c r="J195" s="1" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="K195">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L195">
         <v>1</v>
@@ -8918,15 +7709,15 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="10:17">
       <c r="J196" s="1" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="K196">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L196">
         <v>1</v>
@@ -8944,15 +7735,15 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="10:17">
       <c r="J197" s="1" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="K197">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L197">
         <v>1</v>
@@ -8970,15 +7761,15 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="10:17">
       <c r="J198" s="1" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="K198">
-        <v>0.00078125</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="L198">
         <v>1</v>
@@ -8996,1593 +7787,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="10:17">
-      <c r="J199" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K199">
-        <v>0.00078125</v>
-      </c>
-      <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="M199">
-        <v>1</v>
-      </c>
-      <c r="N199">
-        <v>1</v>
-      </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-      <c r="P199" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q199">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="10:17">
-      <c r="J200" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K200">
-        <v>0.00078125</v>
-      </c>
-      <c r="L200">
-        <v>1</v>
-      </c>
-      <c r="M200">
-        <v>1</v>
-      </c>
-      <c r="N200">
-        <v>1</v>
-      </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-      <c r="P200" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q200">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="10:17">
-      <c r="J201" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K201">
-        <v>0.00078125</v>
-      </c>
-      <c r="L201">
-        <v>1</v>
-      </c>
-      <c r="M201">
-        <v>1</v>
-      </c>
-      <c r="N201">
-        <v>1</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q201">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="10:17">
-      <c r="J202" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K202">
-        <v>0.00078125</v>
-      </c>
-      <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202">
-        <v>1</v>
-      </c>
-      <c r="N202">
-        <v>1</v>
-      </c>
-      <c r="O202">
-        <v>0</v>
-      </c>
-      <c r="P202" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q202">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="10:17">
-      <c r="J203" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K203">
-        <v>0.00078125</v>
-      </c>
-      <c r="L203">
-        <v>1</v>
-      </c>
-      <c r="M203">
-        <v>1</v>
-      </c>
-      <c r="N203">
-        <v>1</v>
-      </c>
-      <c r="O203">
-        <v>0</v>
-      </c>
-      <c r="P203" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q203">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="10:17">
-      <c r="J204" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K204">
-        <v>0.00078125</v>
-      </c>
-      <c r="L204">
-        <v>1</v>
-      </c>
-      <c r="M204">
-        <v>1</v>
-      </c>
-      <c r="N204">
-        <v>1</v>
-      </c>
-      <c r="O204">
-        <v>0</v>
-      </c>
-      <c r="P204" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="10:17">
-      <c r="J205" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K205">
-        <v>0.00078125</v>
-      </c>
-      <c r="L205">
-        <v>1</v>
-      </c>
-      <c r="M205">
-        <v>1</v>
-      </c>
-      <c r="N205">
-        <v>1</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="10:17">
-      <c r="J206" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K206">
-        <v>0.00078125</v>
-      </c>
-      <c r="L206">
-        <v>1</v>
-      </c>
-      <c r="M206">
-        <v>1</v>
-      </c>
-      <c r="N206">
-        <v>1</v>
-      </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-      <c r="P206" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="10:17">
-      <c r="J207" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K207">
-        <v>0.00078125</v>
-      </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207">
-        <v>1</v>
-      </c>
-      <c r="N207">
-        <v>1</v>
-      </c>
-      <c r="O207">
-        <v>0</v>
-      </c>
-      <c r="P207" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="10:17">
-      <c r="J208" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K208">
-        <v>0.00078125</v>
-      </c>
-      <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208">
-        <v>1</v>
-      </c>
-      <c r="N208">
-        <v>1</v>
-      </c>
-      <c r="O208">
-        <v>0</v>
-      </c>
-      <c r="P208" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q208">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="10:17">
-      <c r="J209" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K209">
-        <v>0.00078125</v>
-      </c>
-      <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209">
-        <v>1</v>
-      </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209">
-        <v>0</v>
-      </c>
-      <c r="P209" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q209">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="10:17">
-      <c r="J210" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K210">
-        <v>0.00078125</v>
-      </c>
-      <c r="L210">
-        <v>1</v>
-      </c>
-      <c r="M210">
-        <v>1</v>
-      </c>
-      <c r="N210">
-        <v>1</v>
-      </c>
-      <c r="O210">
-        <v>0</v>
-      </c>
-      <c r="P210" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q210">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="10:17">
-      <c r="J211" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K211">
-        <v>0.00078125</v>
-      </c>
-      <c r="L211">
-        <v>1</v>
-      </c>
-      <c r="M211">
-        <v>1</v>
-      </c>
-      <c r="N211">
-        <v>1</v>
-      </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-      <c r="P211" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="10:17">
-      <c r="J212" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K212">
-        <v>0.00078125</v>
-      </c>
-      <c r="L212">
-        <v>1</v>
-      </c>
-      <c r="M212">
-        <v>1</v>
-      </c>
-      <c r="N212">
-        <v>1</v>
-      </c>
-      <c r="O212">
-        <v>0</v>
-      </c>
-      <c r="P212" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q212">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="10:17">
-      <c r="J213" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K213">
-        <v>0.00078125</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213">
-        <v>1</v>
-      </c>
-      <c r="N213">
-        <v>1</v>
-      </c>
-      <c r="O213">
-        <v>0</v>
-      </c>
-      <c r="P213" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q213">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="10:17">
-      <c r="J214" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K214">
-        <v>0.00078125</v>
-      </c>
-      <c r="L214">
-        <v>1</v>
-      </c>
-      <c r="M214">
-        <v>1</v>
-      </c>
-      <c r="N214">
-        <v>1</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q214">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="10:17">
-      <c r="J215" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K215">
-        <v>0.00078125</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215">
-        <v>1</v>
-      </c>
-      <c r="N215">
-        <v>1</v>
-      </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-      <c r="P215" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="10:17">
-      <c r="J216" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K216">
-        <v>0.00078125</v>
-      </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216">
-        <v>1</v>
-      </c>
-      <c r="N216">
-        <v>1</v>
-      </c>
-      <c r="O216">
-        <v>0</v>
-      </c>
-      <c r="P216" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q216">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="10:17">
-      <c r="J217" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K217">
-        <v>0.00078125</v>
-      </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217">
-        <v>1</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-      <c r="P217" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="218" spans="10:17">
-      <c r="J218" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K218">
-        <v>0.00078125</v>
-      </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218">
-        <v>1</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="219" spans="10:17">
-      <c r="J219" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K219">
-        <v>0.00078125</v>
-      </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="N219">
-        <v>1</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="220" spans="10:17">
-      <c r="J220" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K220">
-        <v>0.00078125</v>
-      </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220">
-        <v>1</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-      <c r="P220" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="10:17">
-      <c r="J221" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K221">
-        <v>0.00078125</v>
-      </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221">
-        <v>1</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-      <c r="P221" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="222" spans="10:17">
-      <c r="J222" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K222">
-        <v>0.00078125</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222">
-        <v>1</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
-      <c r="P222" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="10:17">
-      <c r="J223" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K223">
-        <v>0.00078125</v>
-      </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223">
-        <v>1</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-      <c r="O223">
-        <v>0</v>
-      </c>
-      <c r="P223" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q223">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="224" spans="10:17">
-      <c r="J224" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K224">
-        <v>0.00078125</v>
-      </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="P224" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="10:17">
-      <c r="J225" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K225">
-        <v>0.00078125</v>
-      </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225">
-        <v>1</v>
-      </c>
-      <c r="N225">
-        <v>1</v>
-      </c>
-      <c r="O225">
-        <v>0</v>
-      </c>
-      <c r="P225" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="10:17">
-      <c r="J226" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K226">
-        <v>0.00078125</v>
-      </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
-      </c>
-      <c r="N226">
-        <v>1</v>
-      </c>
-      <c r="O226">
-        <v>0</v>
-      </c>
-      <c r="P226" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="10:17">
-      <c r="J227" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K227">
-        <v>0.00078125</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227">
-        <v>1</v>
-      </c>
-      <c r="N227">
-        <v>1</v>
-      </c>
-      <c r="O227">
-        <v>0</v>
-      </c>
-      <c r="P227" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="10:17">
-      <c r="J228" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K228">
-        <v>0.00078125</v>
-      </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228">
-        <v>1</v>
-      </c>
-      <c r="N228">
-        <v>1</v>
-      </c>
-      <c r="O228">
-        <v>0</v>
-      </c>
-      <c r="P228" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="10:17">
-      <c r="J229" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K229">
-        <v>0.00078125</v>
-      </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-      <c r="M229">
-        <v>1</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-      <c r="O229">
-        <v>0</v>
-      </c>
-      <c r="P229" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q229">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="10:17">
-      <c r="J230" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K230">
-        <v>0.00078125</v>
-      </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230">
-        <v>1</v>
-      </c>
-      <c r="N230">
-        <v>1</v>
-      </c>
-      <c r="O230">
-        <v>0</v>
-      </c>
-      <c r="P230" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q230">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" spans="10:17">
-      <c r="J231" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K231">
-        <v>0.00078125</v>
-      </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231">
-        <v>1</v>
-      </c>
-      <c r="N231">
-        <v>1</v>
-      </c>
-      <c r="O231">
-        <v>0</v>
-      </c>
-      <c r="P231" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q231">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="232" spans="10:17">
-      <c r="J232" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K232">
-        <v>0.00078125</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232">
-        <v>1</v>
-      </c>
-      <c r="N232">
-        <v>1</v>
-      </c>
-      <c r="O232">
-        <v>0</v>
-      </c>
-      <c r="P232" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q232">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="10:17">
-      <c r="J233" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K233">
-        <v>0.00078125</v>
-      </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233">
-        <v>1</v>
-      </c>
-      <c r="N233">
-        <v>1</v>
-      </c>
-      <c r="O233">
-        <v>0</v>
-      </c>
-      <c r="P233" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q233">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="10:17">
-      <c r="J234" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K234">
-        <v>0.00078125</v>
-      </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234">
-        <v>1</v>
-      </c>
-      <c r="N234">
-        <v>1</v>
-      </c>
-      <c r="O234">
-        <v>0</v>
-      </c>
-      <c r="P234" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q234">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="235" spans="10:17">
-      <c r="J235" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K235">
-        <v>0.00078125</v>
-      </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235">
-        <v>1</v>
-      </c>
-      <c r="N235">
-        <v>1</v>
-      </c>
-      <c r="O235">
-        <v>0</v>
-      </c>
-      <c r="P235" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q235">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="10:17">
-      <c r="J236" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K236">
-        <v>0.00078125</v>
-      </c>
-      <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236">
-        <v>1</v>
-      </c>
-      <c r="N236">
-        <v>1</v>
-      </c>
-      <c r="O236">
-        <v>0</v>
-      </c>
-      <c r="P236" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="10:17">
-      <c r="J237" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K237">
-        <v>0.00078125</v>
-      </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237">
-        <v>1</v>
-      </c>
-      <c r="N237">
-        <v>1</v>
-      </c>
-      <c r="O237">
-        <v>0</v>
-      </c>
-      <c r="P237" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q237">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="238" spans="10:17">
-      <c r="J238" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K238">
-        <v>0.00078125</v>
-      </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238">
-        <v>1</v>
-      </c>
-      <c r="N238">
-        <v>1</v>
-      </c>
-      <c r="O238">
-        <v>0</v>
-      </c>
-      <c r="P238" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q238">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="10:17">
-      <c r="J239" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K239">
-        <v>0.00078125</v>
-      </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239">
-        <v>1</v>
-      </c>
-      <c r="N239">
-        <v>1</v>
-      </c>
-      <c r="O239">
-        <v>0</v>
-      </c>
-      <c r="P239" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q239">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="10:17">
-      <c r="J240" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K240">
-        <v>0.00078125</v>
-      </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240">
-        <v>1</v>
-      </c>
-      <c r="N240">
-        <v>1</v>
-      </c>
-      <c r="O240">
-        <v>0</v>
-      </c>
-      <c r="P240" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q240">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="10:17">
-      <c r="J241" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K241">
-        <v>0.00078125</v>
-      </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241">
-        <v>1</v>
-      </c>
-      <c r="N241">
-        <v>1</v>
-      </c>
-      <c r="O241">
-        <v>0</v>
-      </c>
-      <c r="P241" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="10:17">
-      <c r="J242" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K242">
-        <v>0.00078125</v>
-      </c>
-      <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242">
-        <v>1</v>
-      </c>
-      <c r="N242">
-        <v>1</v>
-      </c>
-      <c r="O242">
-        <v>0</v>
-      </c>
-      <c r="P242" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="10:17">
-      <c r="J243" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K243">
-        <v>0.00078125</v>
-      </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243">
-        <v>1</v>
-      </c>
-      <c r="N243">
-        <v>1</v>
-      </c>
-      <c r="O243">
-        <v>0</v>
-      </c>
-      <c r="P243" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="10:17">
-      <c r="J244" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K244">
-        <v>0.00078125</v>
-      </c>
-      <c r="L244">
-        <v>1</v>
-      </c>
-      <c r="M244">
-        <v>1</v>
-      </c>
-      <c r="N244">
-        <v>1</v>
-      </c>
-      <c r="O244">
-        <v>0</v>
-      </c>
-      <c r="P244" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="10:17">
-      <c r="J245" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K245">
-        <v>0.00078125</v>
-      </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245">
-        <v>1</v>
-      </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245">
-        <v>0</v>
-      </c>
-      <c r="P245" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="10:17">
-      <c r="J246" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K246">
-        <v>0.00078125</v>
-      </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246">
-        <v>1</v>
-      </c>
-      <c r="N246">
-        <v>1</v>
-      </c>
-      <c r="O246">
-        <v>0</v>
-      </c>
-      <c r="P246" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q246">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="10:17">
-      <c r="J247" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K247">
-        <v>0.00078125</v>
-      </c>
-      <c r="L247">
-        <v>1</v>
-      </c>
-      <c r="M247">
-        <v>1</v>
-      </c>
-      <c r="N247">
-        <v>1</v>
-      </c>
-      <c r="O247">
-        <v>0</v>
-      </c>
-      <c r="P247" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q247">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="10:17">
-      <c r="J248" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K248">
-        <v>0.00078125</v>
-      </c>
-      <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="M248">
-        <v>1</v>
-      </c>
-      <c r="N248">
-        <v>1</v>
-      </c>
-      <c r="O248">
-        <v>0</v>
-      </c>
-      <c r="P248" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q248">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="10:17">
-      <c r="J249" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K249">
-        <v>0.00078125</v>
-      </c>
-      <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249">
-        <v>1</v>
-      </c>
-      <c r="N249">
-        <v>1</v>
-      </c>
-      <c r="O249">
-        <v>0</v>
-      </c>
-      <c r="P249" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="10:17">
-      <c r="J250" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K250">
-        <v>0.00078125</v>
-      </c>
-      <c r="L250">
-        <v>1</v>
-      </c>
-      <c r="M250">
-        <v>1</v>
-      </c>
-      <c r="N250">
-        <v>1</v>
-      </c>
-      <c r="O250">
-        <v>0</v>
-      </c>
-      <c r="P250" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q250">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="10:17">
-      <c r="J251" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K251">
-        <v>0.00078125</v>
-      </c>
-      <c r="L251">
-        <v>1</v>
-      </c>
-      <c r="M251">
-        <v>1</v>
-      </c>
-      <c r="N251">
-        <v>1</v>
-      </c>
-      <c r="O251">
-        <v>0</v>
-      </c>
-      <c r="P251" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="10:17">
-      <c r="J252" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K252">
-        <v>0.00078125</v>
-      </c>
-      <c r="L252">
-        <v>1</v>
-      </c>
-      <c r="M252">
-        <v>1</v>
-      </c>
-      <c r="N252">
-        <v>1</v>
-      </c>
-      <c r="O252">
-        <v>0</v>
-      </c>
-      <c r="P252" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q252">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="10:17">
-      <c r="J253" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K253">
-        <v>0.00078125</v>
-      </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253">
-        <v>1</v>
-      </c>
-      <c r="N253">
-        <v>1</v>
-      </c>
-      <c r="O253">
-        <v>0</v>
-      </c>
-      <c r="P253" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q253">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="254" spans="10:17">
-      <c r="J254" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K254">
-        <v>0.00078125</v>
-      </c>
-      <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254">
-        <v>1</v>
-      </c>
-      <c r="N254">
-        <v>1</v>
-      </c>
-      <c r="O254">
-        <v>0</v>
-      </c>
-      <c r="P254" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q254">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="255" spans="10:17">
-      <c r="J255" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K255">
-        <v>0.00078125</v>
-      </c>
-      <c r="L255">
-        <v>1</v>
-      </c>
-      <c r="M255">
-        <v>1</v>
-      </c>
-      <c r="N255">
-        <v>1</v>
-      </c>
-      <c r="O255">
-        <v>0</v>
-      </c>
-      <c r="P255" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q255">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="10:17">
-      <c r="J256" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K256">
-        <v>0.00078125</v>
-      </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-      <c r="M256">
-        <v>1</v>
-      </c>
-      <c r="N256">
-        <v>1</v>
-      </c>
-      <c r="O256">
-        <v>0</v>
-      </c>
-      <c r="P256" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q256">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="10:17">
-      <c r="J257" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K257">
-        <v>0.00078125</v>
-      </c>
-      <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257">
-        <v>1</v>
-      </c>
-      <c r="N257">
-        <v>1</v>
-      </c>
-      <c r="O257">
-        <v>0</v>
-      </c>
-      <c r="P257" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q257">
         <v>31</v>
-      </c>
-    </row>
-    <row r="258" spans="10:17">
-      <c r="J258" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K258">
-        <v>0.00078125</v>
-      </c>
-      <c r="L258">
-        <v>1</v>
-      </c>
-      <c r="M258">
-        <v>1</v>
-      </c>
-      <c r="N258">
-        <v>1</v>
-      </c>
-      <c r="O258">
-        <v>0</v>
-      </c>
-      <c r="P258" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q258">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="10:17">
-      <c r="J259" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K259">
-        <v>0.00078125</v>
-      </c>
-      <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259">
-        <v>1</v>
-      </c>
-      <c r="N259">
-        <v>1</v>
-      </c>
-      <c r="O259">
-        <v>0</v>
-      </c>
-      <c r="P259" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q259">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
